--- a/characterSkill_data.xlsx
+++ b/characterSkill_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="6780"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -58,106 +58,106 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <x:si>
+    <x:t>{0} * 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bool</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{0} * 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{0} * 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_image_path</x:t>
+  </x:si>
+  <x:si>
     <x:t>공격 후 4초간 패닉에 빠집니다.</x:t>
   </x:si>
   <x:si>
+    <x:t>공격 후 2초간 패닉에 빠집니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살을 날려서 {0}데미지를 입힙니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강한 공격으로 {0}데미지를 입힙니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살을 날려서 {0}데미지를 입힙니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>image/skill/주몽/fireBow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>character_displayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>string</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 날리기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트 스킬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 날리기</x:t>
+  </x:si>
+  <x:si>
     <x:t>skill_name</x:t>
   </x:si>
   <x:si>
+    <x:t>skill_basic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{0} * 2.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트 스킬 2</x:t>
+  </x:si>
+  <x:si>
     <x:t>테스트 스킬 3</x:t>
   </x:si>
   <x:si>
-    <x:t>skill_basic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트 스킬 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{0} * 2.5</x:t>
+    <x:t>흔한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_effect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_triggerChance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 후 3초간 패닉에 빠집니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>image/skill/흔한/test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>image/skill/주몽/bow</x:t>
   </x:si>
   <x:si>
     <x:t>추가적으로 5초간 스킬 데미지의 200%만큼 지속 피해를 입힙니다.</x:t>
   </x:si>
   <x:si>
-    <x:t>{0} * 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{0} * 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 날리기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트 스킬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 날리기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{0} * 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bool</x:t>
-  </x:si>
-  <x:si>
-    <x:t>string</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 후 2초간 패닉에 빠집니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_image_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>image/skill/주몽/bow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_triggerChance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>image/skill/흔한/test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_effect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>character_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살을 날려서 {0}데미지를 입힙니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강한 공격으로 {0}데미지를 입힙니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살을 날려서 {0}데미지를 입힙니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>image/skill/주몽/fireBow</x:t>
+    <x:t>조금 더 강한 공격으로 {0}데미지를 입힙니다.</x:t>
   </x:si>
   <x:si>
     <x:t>훨씬 더 강한 공격으로 {0}데미지를 입힙니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조금 더 강한 공격으로 {0}데미지를 입힙니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 후 3초간 패닉에 빠집니다.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -310,6 +310,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -392,6 +393,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -426,6 +428,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -470,6 +473,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -513,6 +517,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -597,6 +602,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -617,6 +623,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -647,6 +654,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -993,13 +1001,13 @@
   <x:dimension ref="A1:H7"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G11" activeCellId="0" sqref="G11:G11"/>
+      <x:selection activeCell="D10" activeCellId="0" sqref="D10:D10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="1" max="1" width="13.03125" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="39.10546875" bestFit="1" customWidth="1"/>
     <x:col min="4" max="4" width="22.1484375" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="12.0234375" bestFit="1" customWidth="1"/>
@@ -1011,71 +1019,71 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="H1" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E2" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G2" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F3" s="3">
         <x:v>10</x:v>
@@ -1087,25 +1095,25 @@
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="3" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C4" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>30</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F4" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G4" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H4" s="3" t="b">
         <x:v>0</x:v>
@@ -1113,25 +1121,25 @@
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F5" s="3">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>18</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H5" s="3" t="b">
         <x:v>1</x:v>
@@ -1139,25 +1147,25 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F6" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G6" s="3" t="s">
-        <x:v>33</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H6" s="3" t="b">
         <x:v>0</x:v>
@@ -1165,25 +1173,25 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B7" s="3" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
         <x:v>2</x:v>
-      </x:c>
-      <x:c r="B7" s="3" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E7" s="3" t="s">
-        <x:v>7</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H7" s="3" t="b">
         <x:v>0</x:v>

--- a/characterSkill_data.xlsx
+++ b/characterSkill_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="6780"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="23445" windowHeight="3765"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -56,108 +56,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+  <x:si>
+    <x:t>공격 후 4초간 패닉에 빠집니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 후 2초간 패닉에 빠집니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 후 3초간 패닉에 빠집니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_image_path</x:t>
+  </x:si>
+  <x:si>
+    <x:t>image/skill/흔한/test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_triggerChance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>image/skill/주몽/bow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_basic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트 스킬 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트 스킬 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>float</x:t>
+  </x:si>
+  <x:si>
+    <x:t>string</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흔한</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주몽</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가적으로 5초간 스킬 데미지의 200%만큼 지속 피해를 입힙니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트 스킬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 날리기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 날리기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{0} * 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>skill_effect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살을 날려서 {0}데미지를 입힙니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>image/skill/주몽/fireBow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살을 날려서 {0}데미지를 입힙니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강한 공격으로 {0}데미지를 입힙니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>character_displayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{0} * 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bool</x:t>
+  </x:si>
   <x:si>
     <x:t>{0} * 2</x:t>
   </x:si>
   <x:si>
-    <x:t>bool</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{0} * 5</x:t>
-  </x:si>
-  <x:si>
     <x:t>{0} * 3</x:t>
   </x:si>
   <x:si>
-    <x:t>skill_image_path</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 후 4초간 패닉에 빠집니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 후 2초간 패닉에 빠집니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살을 날려서 {0}데미지를 입힙니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강한 공격으로 {0}데미지를 입힙니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살을 날려서 {0}데미지를 입힙니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>image/skill/주몽/fireBow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>character_displayName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>string</x:t>
-  </x:si>
-  <x:si>
-    <x:t>float</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 날리기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트 스킬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 날리기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_basic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{0} * 2.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트 스킬 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트 스킬 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흔한</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주몽</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_effect</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_triggerChance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 후 3초간 패닉에 빠집니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>image/skill/흔한/test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>skill_description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>image/skill/주몽/bow</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가적으로 5초간 스킬 데미지의 200%만큼 지속 피해를 입힙니다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>조금 더 강한 공격으로 {0}데미지를 입힙니다.</x:t>
   </x:si>
   <x:si>
     <x:t>훨씬 더 강한 공격으로 {0}데미지를 입힙니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{0} * 10</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1001,7 +1004,7 @@
   <x:dimension ref="A1:H7"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D10" activeCellId="0" sqref="D10:D10"/>
+      <x:selection activeCell="F10" activeCellId="0" sqref="F10:F10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
@@ -1019,71 +1022,71 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F1" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H1" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B2" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D2" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E2" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F2" s="2" t="s">
+      <x:c r="G2" s="2" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="G2" s="2" t="s">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="H2" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="3" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B3" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D3" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D3" s="3" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="E3" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F3" s="3">
         <x:v>10</x:v>
@@ -1095,25 +1098,25 @@
     </x:row>
     <x:row r="4" spans="1:8">
       <x:c r="A4" s="3" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B4" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="3" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C4" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
       <x:c r="D4" s="3" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E4" s="3" t="s">
-        <x:v>19</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F4" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G4" s="3" t="s">
-        <x:v>31</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H4" s="3" t="b">
         <x:v>0</x:v>
@@ -1121,25 +1124,25 @@
     </x:row>
     <x:row r="5" spans="1:8">
       <x:c r="A5" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E5" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F5" s="3">
         <x:v>30</x:v>
       </x:c>
       <x:c r="G5" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H5" s="3" t="b">
         <x:v>1</x:v>
@@ -1147,25 +1150,25 @@
     </x:row>
     <x:row r="6" spans="1:8">
       <x:c r="A6" s="3" t="s">
-        <x:v>20</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B6" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="3" t="s">
         <x:v>32</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E6" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F6" s="3">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G6" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H6" s="3" t="b">
         <x:v>0</x:v>
@@ -1173,25 +1176,25 @@
     </x:row>
     <x:row r="7" spans="1:8">
       <x:c r="A7" s="3" t="s">
-        <x:v>21</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B7" s="3" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C7" s="3" t="s">
         <x:v>33</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s">
-        <x:v>28</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E7" s="3" t="s">
-        <x:v>2</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F7" s="3">
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="G7" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H7" s="3" t="b">
         <x:v>0</x:v>
